--- a/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>10.11.2021</t>
+  </si>
+  <si>
+    <t>11.11.2021</t>
   </si>
 </sst>
 </file>
@@ -1138,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,8 +1152,9 @@
     <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="13" style="10" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="6" max="6" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1207,37 +1211,41 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>357599271272460</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <v>355964112882640</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1346,19 +1354,21 @@
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="8">
         <v>351251781346683</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">

--- a/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="07.11.2021" sheetId="9" r:id="rId2"/>
-    <sheet name="20.10.2021" sheetId="8" r:id="rId3"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId4"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId5"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId6"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId7"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId8"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId9"/>
+    <sheet name="09.12.2021" sheetId="10" r:id="rId2"/>
+    <sheet name="07.11.2021" sheetId="9" r:id="rId3"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId4"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId5"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId6"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId7"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId8"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId9"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="97">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -303,6 +304,21 @@
   </si>
   <si>
     <t>11.11.2021</t>
+  </si>
+  <si>
+    <t>Z35</t>
+  </si>
+  <si>
+    <t>09.12.2021</t>
+  </si>
+  <si>
+    <t>Hang Awlays</t>
+  </si>
+  <si>
+    <t>Button Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awlays Hang </t>
   </si>
 </sst>
 </file>
@@ -788,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,16 +867,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C5" s="8">
-        <v>357599271272460</v>
+        <v>354580881428521</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,16 +884,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8">
-        <v>355964112882640</v>
+        <v>354150814973603</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,16 +901,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8">
-        <v>355964112904048</v>
+        <v>354150814204884</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,16 +918,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="8">
-        <v>358425755564181</v>
+        <v>357599272016403</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -919,16 +935,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" s="8">
-        <v>358425754077029</v>
+        <v>357599271624488</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -936,16 +952,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C10" s="8">
-        <v>358425753975884</v>
+        <v>350954042385660</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,16 +969,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8">
-        <v>351251781275569</v>
+        <v>357330673639928</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,82 +989,50 @@
         <v>45</v>
       </c>
       <c r="C12" s="8">
-        <v>351251781346683</v>
+        <v>351251781714245</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="8">
-        <v>357398292885784</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="8">
-        <v>355963113644504</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="8">
-        <v>356035119474944</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="8">
-        <v>352620201376760</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -1137,12 +1121,285 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="115" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,120 +1469,108 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C5" s="8">
-        <v>357599271272460</v>
+        <v>354580881428521</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8">
-        <v>355964112882640</v>
+        <v>354150814973603</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8">
-        <v>355964112904048</v>
+        <v>354150814204884</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="8">
-        <v>358425755564181</v>
+        <v>357599272016403</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" s="8">
-        <v>358425754077029</v>
+        <v>357599271624488</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C10" s="8">
-        <v>358425753975884</v>
+        <v>350954042385660</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="M10" s="10" t="s">
         <v>57</v>
       </c>
@@ -1335,20 +1580,18 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C11" s="8">
-        <v>351251781275569</v>
+        <v>357330673639928</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -1358,95 +1601,55 @@
         <v>45</v>
       </c>
       <c r="C12" s="8">
-        <v>351251781346683</v>
+        <v>351251781714245</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="8">
-        <v>357398292885784</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="13">
-        <v>355963113644504</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="8">
-        <v>356035119474944</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="8">
-        <v>352620201376760</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -1540,9 +1743,410 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8">
+        <v>357599271272460</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="8">
+        <v>355964112882640</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="8">
+        <v>355964112904048</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="8">
+        <v>358425755564181</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8">
+        <v>358425754077029</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="8">
+        <v>358425753975884</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8">
+        <v>351251781275569</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="8">
+        <v>351251781346683</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8">
+        <v>357398292885784</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="13">
+        <v>355963113644504</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="8">
+        <v>356035119474944</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="8">
+        <v>352620201376760</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1936,7 +2540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -2331,7 +2935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -2703,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -3069,7 +3673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3449,7 +4053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -3809,277 +4413,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="115" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="09.12.2021" sheetId="10" r:id="rId2"/>
-    <sheet name="07.11.2021" sheetId="9" r:id="rId3"/>
-    <sheet name="20.10.2021" sheetId="8" r:id="rId4"/>
-    <sheet name="10.10.2021" sheetId="7" r:id="rId5"/>
-    <sheet name="29.09.2021" sheetId="6" r:id="rId6"/>
-    <sheet name="27.09.2021" sheetId="5" r:id="rId7"/>
-    <sheet name="16-09-2021" sheetId="3" r:id="rId8"/>
-    <sheet name="02-09-2021" sheetId="4" r:id="rId9"/>
-    <sheet name="Servicing" sheetId="2" r:id="rId10"/>
+    <sheet name="12.12.2021" sheetId="11" r:id="rId2"/>
+    <sheet name="09.12.2021" sheetId="10" r:id="rId3"/>
+    <sheet name="07.11.2021" sheetId="9" r:id="rId4"/>
+    <sheet name="20.10.2021" sheetId="8" r:id="rId5"/>
+    <sheet name="10.10.2021" sheetId="7" r:id="rId6"/>
+    <sheet name="29.09.2021" sheetId="6" r:id="rId7"/>
+    <sheet name="27.09.2021" sheetId="5" r:id="rId8"/>
+    <sheet name="16-09-2021" sheetId="3" r:id="rId9"/>
+    <sheet name="02-09-2021" sheetId="4" r:id="rId10"/>
+    <sheet name="Servicing" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="99">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -312,13 +313,19 @@
     <t>09.12.2021</t>
   </si>
   <si>
-    <t>Hang Awlays</t>
-  </si>
-  <si>
     <t>Button Problem</t>
   </si>
   <si>
     <t xml:space="preserve">Awlays Hang </t>
+  </si>
+  <si>
+    <t>Z33</t>
+  </si>
+  <si>
+    <t>12.12.2021</t>
+  </si>
+  <si>
+    <t>T92</t>
   </si>
 </sst>
 </file>
@@ -804,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,16 +874,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C5" s="8">
-        <v>354580881428521</v>
+        <v>356814241535800</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -884,119 +891,71 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C6" s="8">
-        <v>354150814973603</v>
+        <v>350488471730542</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="8">
-        <v>354150814204884</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357599272016403</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="8">
-        <v>357599271624488</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
-        <v>350954042385660</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8">
-        <v>357330673639928</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="8">
-        <v>351251781714245</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -1122,6 +1081,368 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>350954041421466</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>356982502853681</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <v>351805992618808</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>351805993112322</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>351805993003745</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>356377118938705</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <v>352371474012548</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8">
+        <v>353133151707702</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -1398,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,16 +1790,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C5" s="8">
-        <v>354580881428521</v>
+        <v>356814241535800</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1487,16 +1808,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C6" s="8">
-        <v>354150814973603</v>
+        <v>350488471730542</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1504,72 +1825,40 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="8">
-        <v>354150814204884</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357599272016403</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="8">
-        <v>357599271624488</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
-        <v>350954042385660</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="7"/>
       <c r="M10" s="10" t="s">
         <v>57</v>
@@ -1579,36 +1868,20 @@
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8">
-        <v>357330673639928</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="8">
-        <v>351251781714245</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1742,6 +2015,353 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="8">
+        <v>354580881428521</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8">
+        <v>354150814973603</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>354150814204884</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357599272016403</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="8">
+        <v>357599271624488</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>350954042385660</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="M10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8">
+        <v>357330673639928</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="8">
+        <v>351251781714245</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -2142,7 +2762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -2540,7 +3160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -2935,7 +3555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -3307,7 +3927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -3673,7 +4293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4051,366 +4671,4 @@
   <pageMargins left="0" right="0" top="0.75" bottom="0" header="0.3" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8">
-        <v>350954041421466</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8">
-        <v>356982502853681</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8">
-        <v>351805992618808</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8">
-        <v>351805993112322</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8">
-        <v>351805993003745</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8">
-        <v>356377118938705</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8">
-        <v>352371474012548</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8">
-        <v>353133151707702</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="100">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>T92</t>
+  </si>
+  <si>
+    <t>13.12.2021</t>
   </si>
 </sst>
 </file>
@@ -811,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2121,9 @@
       <c r="E6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -2154,7 +2159,9 @@
       <c r="E8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">

--- a/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="101">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>13.12.2021</t>
+  </si>
+  <si>
+    <t>14.12.2021</t>
   </si>
 </sst>
 </file>
@@ -1722,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,7 +2106,9 @@
       <c r="E5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -2141,7 +2146,9 @@
       <c r="E7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -2179,7 +2186,9 @@
       <c r="E9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -2197,7 +2206,9 @@
       <c r="E10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="M10" s="10" t="s">
         <v>57</v>
       </c>
@@ -2218,7 +2229,9 @@
       <c r="E11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -2236,7 +2249,9 @@
       <c r="E12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">

--- a/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="104">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -319,19 +319,28 @@
     <t xml:space="preserve">Awlays Hang </t>
   </si>
   <si>
-    <t>Z33</t>
-  </si>
-  <si>
-    <t>12.12.2021</t>
-  </si>
-  <si>
-    <t>T92</t>
-  </si>
-  <si>
     <t>13.12.2021</t>
   </si>
   <si>
     <t>14.12.2021</t>
+  </si>
+  <si>
+    <t>30.12.2021</t>
+  </si>
+  <si>
+    <t>Bl99</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>G10+</t>
+  </si>
+  <si>
+    <t>Atom</t>
+  </si>
+  <si>
+    <t>Flash Light &amp; Phone off</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,6 +542,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,31 +850,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -880,13 +898,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8">
-        <v>356814241535800</v>
+        <v>351251781852425</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>56</v>
@@ -897,89 +915,153 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8">
+        <v>355482206841364</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="8">
-        <v>350488471730542</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8">
+        <v>355482207034563</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="8">
+        <v>356035118191549</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="8">
+        <v>356035119506406</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="8">
+        <v>354150813634586</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="8">
+        <v>357398296995241</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="8">
+        <v>359946901956160</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8">
+        <v>356184721659300</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="8">
+        <v>355002761600540</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1725,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,8 +1817,8 @@
     <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="13" style="10" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
@@ -1796,13 +1878,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8">
-        <v>356814241535800</v>
+        <v>351251781852425</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>56</v>
@@ -1814,16 +1896,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8">
+        <v>355482206841364</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="8">
-        <v>350488471730542</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1831,40 +1913,72 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8">
+        <v>355482207034563</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="8">
+        <v>356035118191549</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="8">
+        <v>356035119506406</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="8">
+        <v>354150813634586</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="M10" s="10" t="s">
         <v>57</v>
@@ -1874,40 +1988,72 @@
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="8">
+        <v>357398296995241</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="8">
+        <v>359946901956160</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8">
+        <v>356184721659300</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="8">
+        <v>355002761600540</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2107,7 +2253,7 @@
         <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2127,7 +2273,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2147,7 +2293,7 @@
         <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,7 +2313,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,7 +2333,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,7 +2353,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>57</v>
@@ -2230,7 +2376,7 @@
         <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2250,7 +2396,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
